--- a/econ/p9/p9.xlsx
+++ b/econ/p9/p9.xlsx
@@ -946,11 +946,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot; ₽&quot;_-;\-* #,##0.00&quot; ₽&quot;_-;_-* \-??&quot; ₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1260,7 +1261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1362,13 +1363,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -1401,100 +1395,104 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1502,247 +1500,219 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1824,14 +1794,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>246960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:colOff>113760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>253800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1845,7 +1815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1375560" y="8086680"/>
-          <a:ext cx="114120" cy="7200"/>
+          <a:ext cx="113760" cy="6840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2042,402 +2012,402 @@
   </sheetPr>
   <dimension ref="B1:AH117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="19" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="19" style="1" width="9.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="1"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="1"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="15" t="s">
+      <c r="R17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S17" s="15" t="s">
+      <c r="S17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V17" s="15" t="s">
+      <c r="V17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="X17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" s="15" t="s">
+      <c r="Y17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Z17" s="15" t="s">
+      <c r="Z17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA17" s="15" t="s">
+      <c r="AA17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AB17" s="15" t="s">
+      <c r="AB17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC17" s="15" t="s">
+      <c r="AC17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD17" s="15" t="s">
+      <c r="AD17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AE17" s="15" t="s">
+      <c r="AE17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AF17" s="15" t="s">
+      <c r="AF17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AG17" s="15" t="s">
+      <c r="AG17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AH17" s="15" t="s">
+      <c r="AH17" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
-      <c r="D18" s="16" t="n">
+      <c r="C18" s="13"/>
+      <c r="D18" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="18" t="n">
         <f aca="false">D18+1</f>
         <v>2</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="18" t="n">
         <f aca="false">E18+1</f>
         <v>3</v>
       </c>
-      <c r="G18" s="17" t="n">
+      <c r="G18" s="18" t="n">
         <f aca="false">F18+1</f>
         <v>4</v>
       </c>
-      <c r="H18" s="17" t="n">
+      <c r="H18" s="18" t="n">
         <f aca="false">G18+1</f>
         <v>5</v>
       </c>
-      <c r="I18" s="17" t="n">
+      <c r="I18" s="18" t="n">
         <f aca="false">H18+1</f>
         <v>6</v>
       </c>
-      <c r="J18" s="17" t="n">
+      <c r="J18" s="18" t="n">
         <f aca="false">I18+1</f>
         <v>7</v>
       </c>
-      <c r="K18" s="17" t="n">
+      <c r="K18" s="18" t="n">
         <f aca="false">J18+1</f>
         <v>8</v>
       </c>
-      <c r="L18" s="17" t="n">
+      <c r="L18" s="18" t="n">
         <f aca="false">K18+1</f>
         <v>9</v>
       </c>
-      <c r="M18" s="17" t="n">
+      <c r="M18" s="18" t="n">
         <f aca="false">L18+1</f>
         <v>10</v>
       </c>
-      <c r="N18" s="17" t="n">
+      <c r="N18" s="18" t="n">
         <f aca="false">M18+1</f>
         <v>11</v>
       </c>
-      <c r="O18" s="17" t="n">
+      <c r="O18" s="18" t="n">
         <f aca="false">N18+1</f>
         <v>12</v>
       </c>
-      <c r="P18" s="17" t="n">
+      <c r="P18" s="18" t="n">
         <f aca="false">O18+1</f>
         <v>13</v>
       </c>
-      <c r="Q18" s="17" t="n">
+      <c r="Q18" s="18" t="n">
         <f aca="false">P18+1</f>
         <v>14</v>
       </c>
-      <c r="R18" s="17" t="n">
+      <c r="R18" s="18" t="n">
         <f aca="false">Q18+1</f>
         <v>15</v>
       </c>
-      <c r="S18" s="17" t="n">
+      <c r="S18" s="18" t="n">
         <f aca="false">R18+1</f>
         <v>16</v>
       </c>
-      <c r="T18" s="17" t="n">
+      <c r="T18" s="18" t="n">
         <f aca="false">S18+1</f>
         <v>17</v>
       </c>
-      <c r="U18" s="17" t="n">
+      <c r="U18" s="18" t="n">
         <f aca="false">T18+1</f>
         <v>18</v>
       </c>
-      <c r="V18" s="17" t="n">
+      <c r="V18" s="18" t="n">
         <f aca="false">U18+1</f>
         <v>19</v>
       </c>
-      <c r="W18" s="17" t="n">
+      <c r="W18" s="18" t="n">
         <f aca="false">V18+1</f>
         <v>20</v>
       </c>
-      <c r="X18" s="17" t="n">
+      <c r="X18" s="18" t="n">
         <f aca="false">W18+1</f>
         <v>21</v>
       </c>
-      <c r="Y18" s="17" t="n">
+      <c r="Y18" s="18" t="n">
         <f aca="false">X18+1</f>
         <v>22</v>
       </c>
-      <c r="Z18" s="17" t="n">
+      <c r="Z18" s="18" t="n">
         <f aca="false">Y18+1</f>
         <v>23</v>
       </c>
-      <c r="AA18" s="17" t="n">
+      <c r="AA18" s="18" t="n">
         <f aca="false">Z18+1</f>
         <v>24</v>
       </c>
-      <c r="AB18" s="18" t="n">
+      <c r="AB18" s="19" t="n">
         <f aca="false">AA18+1</f>
         <v>25</v>
       </c>
-      <c r="AC18" s="15" t="n">
+      <c r="AC18" s="16" t="n">
         <f aca="false">AB18+1</f>
         <v>26</v>
       </c>
-      <c r="AD18" s="15" t="n">
+      <c r="AD18" s="16" t="n">
         <f aca="false">AC18+1</f>
         <v>27</v>
       </c>
-      <c r="AE18" s="15" t="n">
+      <c r="AE18" s="16" t="n">
         <f aca="false">AD18+1</f>
         <v>28</v>
       </c>
-      <c r="AF18" s="18" t="n">
+      <c r="AF18" s="19" t="n">
         <f aca="false">AE18+1</f>
         <v>29</v>
       </c>
-      <c r="AG18" s="15" t="n">
+      <c r="AG18" s="16" t="n">
         <f aca="false">AF18+1</f>
         <v>30</v>
       </c>
-      <c r="AH18" s="19" t="n">
+      <c r="AH18" s="20" t="n">
         <f aca="false">AG18+1</f>
         <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="22" t="n">
         <v>2205000</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="E19" s="23" t="n">
         <v>2603000</v>
       </c>
-      <c r="F19" s="22" t="n">
+      <c r="F19" s="23" t="n">
         <v>3603000</v>
       </c>
-      <c r="G19" s="22" t="n">
+      <c r="G19" s="23" t="n">
         <v>4603000</v>
       </c>
-      <c r="H19" s="22" t="n">
+      <c r="H19" s="23" t="n">
         <v>7603000</v>
       </c>
-      <c r="I19" s="23" t="n">
+      <c r="I19" s="24" t="n">
         <v>4603000</v>
       </c>
-      <c r="J19" s="23" t="n">
+      <c r="J19" s="24" t="n">
         <v>2503000</v>
       </c>
-      <c r="K19" s="23" t="n">
+      <c r="K19" s="24" t="n">
         <v>6703000</v>
       </c>
-      <c r="L19" s="23" t="n">
+      <c r="L19" s="24" t="n">
         <v>7703000</v>
       </c>
-      <c r="M19" s="23" t="n">
+      <c r="M19" s="24" t="n">
         <v>8703000</v>
       </c>
-      <c r="N19" s="23" t="n">
+      <c r="N19" s="24" t="n">
         <v>9103000</v>
       </c>
-      <c r="O19" s="23" t="n">
+      <c r="O19" s="24" t="n">
         <v>7001000</v>
       </c>
-      <c r="P19" s="23" t="n">
+      <c r="P19" s="24" t="n">
         <v>2809000</v>
       </c>
-      <c r="Q19" s="24" t="n">
+      <c r="Q19" s="25" t="n">
         <f aca="false">P19+150</f>
         <v>2809150</v>
       </c>
-      <c r="R19" s="23" t="n">
+      <c r="R19" s="24" t="n">
         <v>4802300</v>
       </c>
-      <c r="S19" s="25" t="n">
+      <c r="S19" s="24" t="n">
         <f aca="false">R19+200</f>
         <v>4802500</v>
       </c>
-      <c r="T19" s="25" t="n">
+      <c r="T19" s="24" t="n">
         <f aca="false">S19+200</f>
         <v>4802700</v>
       </c>
-      <c r="U19" s="25" t="n">
+      <c r="U19" s="24" t="n">
         <f aca="false">T19+200</f>
         <v>4802900</v>
       </c>
-      <c r="V19" s="25" t="n">
+      <c r="V19" s="24" t="n">
         <f aca="false">U19+200</f>
         <v>4803100</v>
       </c>
-      <c r="W19" s="25" t="n">
+      <c r="W19" s="24" t="n">
         <f aca="false">V19+200</f>
         <v>4803300</v>
       </c>
-      <c r="X19" s="25" t="n">
+      <c r="X19" s="24" t="n">
         <f aca="false">W19+200</f>
         <v>4803500</v>
       </c>
-      <c r="Y19" s="25" t="n">
+      <c r="Y19" s="24" t="n">
         <f aca="false">X19+200</f>
         <v>4803700</v>
       </c>
-      <c r="Z19" s="25" t="n">
+      <c r="Z19" s="24" t="n">
         <f aca="false">Y19+200</f>
         <v>4803900</v>
       </c>
-      <c r="AA19" s="25" t="n">
+      <c r="AA19" s="24" t="n">
         <f aca="false">Z19+200</f>
         <v>4804100</v>
       </c>
@@ -2445,15 +2415,15 @@
         <f aca="false">AA19+200</f>
         <v>4804300</v>
       </c>
-      <c r="AC19" s="25" t="n">
+      <c r="AC19" s="24" t="n">
         <f aca="false">AB19+200</f>
         <v>4804500</v>
       </c>
-      <c r="AD19" s="25" t="n">
+      <c r="AD19" s="24" t="n">
         <f aca="false">AC19+200</f>
         <v>4804700</v>
       </c>
-      <c r="AE19" s="25" t="n">
+      <c r="AE19" s="24" t="n">
         <f aca="false">AD19+200</f>
         <v>4804900</v>
       </c>
@@ -2919,126 +2889,126 @@
       <c r="C24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="17" t="n">
         <v>1600</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="17" t="n">
         <f aca="false">E23*E20</f>
         <v>1890</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="17" t="n">
         <f aca="false">F23*F20</f>
         <v>2200</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="17" t="n">
         <f aca="false">G23*G20</f>
         <v>2530</v>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="17" t="n">
         <f aca="false">H23*H20</f>
         <v>2880</v>
       </c>
-      <c r="I24" s="16" t="n">
+      <c r="I24" s="17" t="n">
         <f aca="false">I23*I20</f>
         <v>2000</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="J24" s="17" t="n">
         <f aca="false">J23*J20</f>
         <v>2340</v>
       </c>
-      <c r="K24" s="16" t="n">
+      <c r="K24" s="17" t="n">
         <f aca="false">K23*K20</f>
         <v>2700</v>
       </c>
-      <c r="L24" s="16" t="n">
+      <c r="L24" s="17" t="n">
         <f aca="false">L23*L20</f>
         <v>3080</v>
       </c>
-      <c r="M24" s="16" t="n">
+      <c r="M24" s="17" t="n">
         <f aca="false">M23*M20</f>
         <v>3480</v>
       </c>
-      <c r="N24" s="16" t="n">
+      <c r="N24" s="17" t="n">
         <f aca="false">N23*N20</f>
         <v>3900</v>
       </c>
-      <c r="O24" s="16" t="n">
+      <c r="O24" s="17" t="n">
         <f aca="false">O23*O20</f>
         <v>2480</v>
       </c>
-      <c r="P24" s="16" t="n">
+      <c r="P24" s="17" t="n">
         <f aca="false">P23*P20</f>
         <v>2880</v>
       </c>
-      <c r="Q24" s="16" t="n">
+      <c r="Q24" s="17" t="n">
         <f aca="false">Q23*Q20</f>
         <v>3300</v>
       </c>
-      <c r="R24" s="16" t="n">
+      <c r="R24" s="17" t="n">
         <f aca="false">R23*R20</f>
         <v>3740</v>
       </c>
-      <c r="S24" s="16" t="n">
+      <c r="S24" s="17" t="n">
         <f aca="false">S23*S20</f>
         <v>4200</v>
       </c>
-      <c r="T24" s="16" t="n">
+      <c r="T24" s="17" t="n">
         <f aca="false">T23*T20</f>
         <v>4680</v>
       </c>
-      <c r="U24" s="16" t="n">
+      <c r="U24" s="17" t="n">
         <f aca="false">U23*U20</f>
         <v>5180</v>
       </c>
-      <c r="V24" s="16" t="n">
+      <c r="V24" s="17" t="n">
         <f aca="false">V23*V20</f>
         <v>3040</v>
       </c>
-      <c r="W24" s="16" t="n">
+      <c r="W24" s="17" t="n">
         <f aca="false">W23*W20</f>
         <v>3510</v>
       </c>
-      <c r="X24" s="16" t="n">
+      <c r="X24" s="17" t="n">
         <f aca="false">X23*X20</f>
         <v>4000</v>
       </c>
-      <c r="Y24" s="16" t="n">
+      <c r="Y24" s="17" t="n">
         <f aca="false">Y23*Y20</f>
         <v>4510</v>
       </c>
-      <c r="Z24" s="16" t="n">
+      <c r="Z24" s="17" t="n">
         <f aca="false">Z23*Z20</f>
         <v>5040</v>
       </c>
-      <c r="AA24" s="16" t="n">
+      <c r="AA24" s="17" t="n">
         <f aca="false">AA23*AA20</f>
         <v>5590</v>
       </c>
-      <c r="AB24" s="16" t="n">
+      <c r="AB24" s="17" t="n">
         <f aca="false">AB23*AB20</f>
         <v>6160</v>
       </c>
-      <c r="AC24" s="16" t="n">
+      <c r="AC24" s="17" t="n">
         <f aca="false">AC23*AC20</f>
         <v>3600</v>
       </c>
-      <c r="AD24" s="16" t="n">
+      <c r="AD24" s="17" t="n">
         <f aca="false">AD23*AD20</f>
         <v>4140</v>
       </c>
-      <c r="AE24" s="16" t="n">
+      <c r="AE24" s="17" t="n">
         <f aca="false">AE23*AE20</f>
         <v>4700</v>
       </c>
-      <c r="AF24" s="16" t="n">
+      <c r="AF24" s="17" t="n">
         <f aca="false">AF23*AF20</f>
         <v>5280</v>
       </c>
-      <c r="AG24" s="16" t="n">
+      <c r="AG24" s="17" t="n">
         <f aca="false">AG23*AG20</f>
         <v>5880</v>
       </c>
-      <c r="AH24" s="16" t="n">
+      <c r="AH24" s="17" t="n">
         <f aca="false">AH23*AH20</f>
         <v>6500</v>
       </c>
@@ -3047,12 +3017,12 @@
       <c r="C25" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="36" t="s">
@@ -3062,36 +3032,36 @@
         <v>20</v>
       </c>
       <c r="F26" s="38"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="39" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="37"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="41"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="40" t="s">
@@ -3101,12 +3071,12 @@
         <v>24</v>
       </c>
       <c r="E29" s="42"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="40" t="s">
@@ -3114,12 +3084,12 @@
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="40" t="s">
@@ -3127,98 +3097,98 @@
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="44" t="s">
         <v>27</v>
       </c>
       <c r="I32" s="45"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="46" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="46"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="40"/>
       <c r="D34" s="42"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="46"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="49" t="s">
@@ -3267,34 +3237,33 @@
         <v>38</v>
       </c>
       <c r="E47" s="51"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="59" t="s">
+      <c r="F48" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="31" t="n">
@@ -3304,357 +3273,357 @@
         <f aca="false">N19-N21</f>
         <v>8903000</v>
       </c>
-      <c r="D49" s="62" t="n">
+      <c r="D49" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E49" s="63" t="n">
+      <c r="E49" s="60" t="n">
         <f aca="false">C49/($N$20-B49+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F49" s="63" t="n">
+      <c r="F49" s="60" t="n">
         <f aca="false">E49</f>
         <v>684846.153846154</v>
       </c>
-      <c r="G49" s="63" t="n">
+      <c r="G49" s="60" t="n">
         <f aca="false">C49-F49</f>
         <v>8218153.84615385</v>
       </c>
-      <c r="H49" s="64"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="31" t="n">
         <f aca="false">B49+1</f>
         <v>2</v>
       </c>
-      <c r="C50" s="63" t="n">
+      <c r="C50" s="60" t="n">
         <f aca="false">G49</f>
         <v>8218153.84615385</v>
       </c>
-      <c r="D50" s="62" t="n">
+      <c r="D50" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E50" s="63" t="n">
+      <c r="E50" s="60" t="n">
         <f aca="false">C50/($N$20-B50+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F50" s="63" t="n">
+      <c r="F50" s="60" t="n">
         <f aca="false">F49+E50</f>
         <v>1369692.30769231</v>
       </c>
-      <c r="G50" s="63" t="n">
+      <c r="G50" s="60" t="n">
         <f aca="false">C50-E50</f>
         <v>7533307.69230769</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="31" t="n">
         <f aca="false">B50+1</f>
         <v>3</v>
       </c>
-      <c r="C51" s="63" t="n">
+      <c r="C51" s="60" t="n">
         <f aca="false">G50</f>
         <v>7533307.69230769</v>
       </c>
-      <c r="D51" s="62" t="n">
+      <c r="D51" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E51" s="63" t="n">
+      <c r="E51" s="60" t="n">
         <f aca="false">C51/($N$20-B51+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F51" s="63" t="n">
+      <c r="F51" s="60" t="n">
         <f aca="false">F50+E51</f>
         <v>2054538.46153846</v>
       </c>
-      <c r="G51" s="63" t="n">
+      <c r="G51" s="60" t="n">
         <f aca="false">C51-E51</f>
         <v>6848461.53846154</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="31" t="n">
         <f aca="false">B51+1</f>
         <v>4</v>
       </c>
-      <c r="C52" s="63" t="n">
+      <c r="C52" s="60" t="n">
         <f aca="false">G51</f>
         <v>6848461.53846154</v>
       </c>
-      <c r="D52" s="62" t="n">
+      <c r="D52" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E52" s="63" t="n">
+      <c r="E52" s="60" t="n">
         <f aca="false">C52/($N$20-B52+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F52" s="63" t="n">
+      <c r="F52" s="60" t="n">
         <f aca="false">F51+E52</f>
         <v>2739384.61538462</v>
       </c>
-      <c r="G52" s="63" t="n">
+      <c r="G52" s="60" t="n">
         <f aca="false">C52-E52</f>
         <v>6163615.38461538</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="31" t="n">
         <f aca="false">B52+1</f>
         <v>5</v>
       </c>
-      <c r="C53" s="63" t="n">
+      <c r="C53" s="60" t="n">
         <f aca="false">G52</f>
         <v>6163615.38461538</v>
       </c>
-      <c r="D53" s="62" t="n">
+      <c r="D53" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E53" s="63" t="n">
+      <c r="E53" s="60" t="n">
         <f aca="false">C53/($N$20-B53+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F53" s="63" t="n">
+      <c r="F53" s="60" t="n">
         <f aca="false">F52+E53</f>
         <v>3424230.76923077</v>
       </c>
-      <c r="G53" s="63" t="n">
+      <c r="G53" s="60" t="n">
         <f aca="false">C53-E53</f>
         <v>5478769.23076923</v>
       </c>
-      <c r="H53" s="64"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="31" t="n">
         <f aca="false">B53+1</f>
         <v>6</v>
       </c>
-      <c r="C54" s="63" t="n">
+      <c r="C54" s="60" t="n">
         <f aca="false">G53</f>
         <v>5478769.23076923</v>
       </c>
-      <c r="D54" s="62" t="n">
+      <c r="D54" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E54" s="63" t="n">
+      <c r="E54" s="60" t="n">
         <f aca="false">C54/($N$20-B54+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F54" s="63" t="n">
+      <c r="F54" s="60" t="n">
         <f aca="false">F53+E54</f>
         <v>4109076.92307692</v>
       </c>
-      <c r="G54" s="63" t="n">
+      <c r="G54" s="60" t="n">
         <f aca="false">C54-E54</f>
         <v>4793923.07692308</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="31" t="n">
         <f aca="false">B54+1</f>
         <v>7</v>
       </c>
-      <c r="C55" s="63" t="n">
+      <c r="C55" s="60" t="n">
         <f aca="false">G54</f>
         <v>4793923.07692308</v>
       </c>
-      <c r="D55" s="62" t="n">
+      <c r="D55" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E55" s="63" t="n">
+      <c r="E55" s="60" t="n">
         <f aca="false">C55/($N$20-B55+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F55" s="63" t="n">
+      <c r="F55" s="60" t="n">
         <f aca="false">F54+E55</f>
         <v>4793923.07692308</v>
       </c>
-      <c r="G55" s="63" t="n">
+      <c r="G55" s="60" t="n">
         <f aca="false">C55-E55</f>
         <v>4109076.92307692</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="31" t="n">
         <f aca="false">B55+1</f>
         <v>8</v>
       </c>
-      <c r="C56" s="63" t="n">
+      <c r="C56" s="60" t="n">
         <f aca="false">G55</f>
         <v>4109076.92307692</v>
       </c>
-      <c r="D56" s="62" t="n">
+      <c r="D56" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E56" s="63" t="n">
+      <c r="E56" s="60" t="n">
         <f aca="false">C56/($N$20-B56+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F56" s="63" t="n">
+      <c r="F56" s="60" t="n">
         <f aca="false">F55+E56</f>
         <v>5478769.23076923</v>
       </c>
-      <c r="G56" s="63" t="n">
+      <c r="G56" s="60" t="n">
         <f aca="false">C56-E56</f>
         <v>3424230.76923077</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="31" t="n">
         <f aca="false">B56+1</f>
         <v>9</v>
       </c>
-      <c r="C57" s="63" t="n">
+      <c r="C57" s="60" t="n">
         <f aca="false">G56</f>
         <v>3424230.76923077</v>
       </c>
-      <c r="D57" s="62" t="n">
+      <c r="D57" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E57" s="63" t="n">
+      <c r="E57" s="60" t="n">
         <f aca="false">C57/($N$20-B57+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F57" s="63" t="n">
+      <c r="F57" s="60" t="n">
         <f aca="false">F56+E57</f>
         <v>6163615.38461539</v>
       </c>
-      <c r="G57" s="63" t="n">
+      <c r="G57" s="60" t="n">
         <f aca="false">C57-E57</f>
         <v>2739384.61538462</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="31" t="n">
         <f aca="false">B57+1</f>
         <v>10</v>
       </c>
-      <c r="C58" s="63" t="n">
+      <c r="C58" s="60" t="n">
         <f aca="false">G57</f>
         <v>2739384.61538462</v>
       </c>
-      <c r="D58" s="62" t="n">
+      <c r="D58" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E58" s="63" t="n">
+      <c r="E58" s="60" t="n">
         <f aca="false">C58/($N$20-B58+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F58" s="63" t="n">
+      <c r="F58" s="60" t="n">
         <f aca="false">F57+E58</f>
         <v>6848461.53846154</v>
       </c>
-      <c r="G58" s="63" t="n">
+      <c r="G58" s="60" t="n">
         <f aca="false">C58-E58</f>
         <v>2054538.46153846</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="31" t="n">
         <f aca="false">B58+1</f>
         <v>11</v>
       </c>
-      <c r="C59" s="63" t="n">
+      <c r="C59" s="60" t="n">
         <f aca="false">G58</f>
         <v>2054538.46153846</v>
       </c>
-      <c r="D59" s="62" t="n">
+      <c r="D59" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E59" s="63" t="n">
+      <c r="E59" s="60" t="n">
         <f aca="false">C59/($N$20-B59+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F59" s="63" t="n">
+      <c r="F59" s="60" t="n">
         <f aca="false">F58+E59</f>
         <v>7533307.69230769</v>
       </c>
-      <c r="G59" s="63" t="n">
+      <c r="G59" s="60" t="n">
         <f aca="false">C59-E59</f>
         <v>1369692.30769231</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="31" t="n">
         <f aca="false">B59+1</f>
         <v>12</v>
       </c>
-      <c r="C60" s="63" t="n">
+      <c r="C60" s="60" t="n">
         <f aca="false">G59</f>
         <v>1369692.30769231</v>
       </c>
-      <c r="D60" s="62" t="n">
+      <c r="D60" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E60" s="63" t="n">
+      <c r="E60" s="60" t="n">
         <f aca="false">C60/($N$20-B60+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F60" s="63" t="n">
+      <c r="F60" s="60" t="n">
         <f aca="false">F59+E60</f>
         <v>8218153.84615385</v>
       </c>
-      <c r="G60" s="63" t="n">
+      <c r="G60" s="60" t="n">
         <f aca="false">C60-E60</f>
         <v>684846.153846154</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="31" t="n">
         <f aca="false">B60+1</f>
         <v>13</v>
       </c>
-      <c r="C61" s="63" t="n">
+      <c r="C61" s="60" t="n">
         <f aca="false">G60</f>
         <v>684846.153846154</v>
       </c>
-      <c r="D61" s="62" t="n">
+      <c r="D61" s="59" t="n">
         <f aca="false">$N$21</f>
         <v>200000</v>
       </c>
-      <c r="E61" s="63" t="n">
+      <c r="E61" s="60" t="n">
         <f aca="false">C61/($N$20-B61+1)</f>
         <v>684846.153846154</v>
       </c>
-      <c r="F61" s="63" t="n">
+      <c r="F61" s="60" t="n">
         <f aca="false">F60+E61</f>
         <v>8903000</v>
       </c>
-      <c r="G61" s="63" t="n">
+      <c r="G61" s="60" t="n">
         <f aca="false">C61-E61</f>
         <v>0</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="65"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="46" t="s">
@@ -3663,261 +3632,494 @@
       <c r="D64" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="G64" s="4" t="s">
+      <c r="E64" s="63"/>
+      <c r="G64" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="67" t="s">
+      <c r="E65" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="G65" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="I65" s="69"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="61"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="C66" s="60" t="n">
+        <f aca="false">N19-N21</f>
+        <v>8903000</v>
+      </c>
+      <c r="D66" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E66" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F66" s="60" t="n">
+        <f aca="false">(C66)*E66/($N$20-B66+1)</f>
+        <v>1438176.92307692</v>
+      </c>
+      <c r="G66" s="68" t="n">
+        <f aca="false">F66</f>
+        <v>1438176.92307692</v>
+      </c>
+      <c r="H66" s="69" t="n">
+        <f aca="false">C66-F66</f>
+        <v>7464823.07692308</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="31" t="n">
         <f aca="false">B66+1</f>
         <v>2</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="C67" s="60" t="n">
+        <f aca="false">H66</f>
+        <v>7464823.07692308</v>
+      </c>
+      <c r="D67" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E67" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F67" s="60" t="n">
+        <f aca="false">(C67)*E67/($N$20-B67+1)</f>
+        <v>1306344.03846154</v>
+      </c>
+      <c r="G67" s="70" t="n">
+        <f aca="false">G66+F67</f>
+        <v>2744520.96153846</v>
+      </c>
+      <c r="H67" s="69" t="n">
+        <f aca="false">C67-F67</f>
+        <v>6158479.03846154</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="31" t="n">
         <f aca="false">B67+1</f>
         <v>3</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="C68" s="60" t="n">
+        <f aca="false">H67</f>
+        <v>6158479.03846154</v>
+      </c>
+      <c r="D68" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E68" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F68" s="60" t="n">
+        <f aca="false">(C68)*E68/($N$20-B68+1)</f>
+        <v>1175709.63461538</v>
+      </c>
+      <c r="G68" s="70" t="n">
+        <f aca="false">G67+F68</f>
+        <v>3920230.59615385</v>
+      </c>
+      <c r="H68" s="69" t="n">
+        <f aca="false">C68-F68</f>
+        <v>4982769.40384615</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="31" t="n">
         <f aca="false">B68+1</f>
         <v>4</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="C69" s="60" t="n">
+        <f aca="false">H68</f>
+        <v>4982769.40384615</v>
+      </c>
+      <c r="D69" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E69" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F69" s="60" t="n">
+        <f aca="false">(C69)*E69/($N$20-B69+1)</f>
+        <v>1046381.57480769</v>
+      </c>
+      <c r="G69" s="70" t="n">
+        <f aca="false">G68+F69</f>
+        <v>4966612.17096154</v>
+      </c>
+      <c r="H69" s="69" t="n">
+        <f aca="false">C69-F69</f>
+        <v>3936387.82903846</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="31" t="n">
         <f aca="false">B69+1</f>
         <v>5</v>
       </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="C70" s="60" t="n">
+        <f aca="false">H69</f>
+        <v>3936387.82903846</v>
+      </c>
+      <c r="D70" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E70" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F70" s="60" t="n">
+        <f aca="false">(C70)*E70/($N$20-B70+1)</f>
+        <v>918490.493442308</v>
+      </c>
+      <c r="G70" s="70" t="n">
+        <f aca="false">G69+F70</f>
+        <v>5885102.66440385</v>
+      </c>
+      <c r="H70" s="69" t="n">
+        <f aca="false">C70-F70</f>
+        <v>3017897.33559615</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="31" t="n">
         <f aca="false">B70+1</f>
         <v>6</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="C71" s="60" t="n">
+        <f aca="false">H70</f>
+        <v>3017897.33559615</v>
+      </c>
+      <c r="D71" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E71" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F71" s="60" t="n">
+        <f aca="false">(C71)*E71/($N$20-B71+1)</f>
+        <v>792198.050593991</v>
+      </c>
+      <c r="G71" s="70" t="n">
+        <f aca="false">G70+F71</f>
+        <v>6677300.71499784</v>
+      </c>
+      <c r="H71" s="69" t="n">
+        <f aca="false">C71-F71</f>
+        <v>2225699.28500216</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="31" t="n">
         <f aca="false">B71+1</f>
         <v>7</v>
       </c>
-      <c r="C72" s="63"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="C72" s="60" t="n">
+        <f aca="false">H71</f>
+        <v>2225699.28500216</v>
+      </c>
+      <c r="D72" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E72" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F72" s="60" t="n">
+        <f aca="false">(C72)*E72/($N$20-B72+1)</f>
+        <v>667709.785500649</v>
+      </c>
+      <c r="G72" s="70" t="n">
+        <f aca="false">G71+F72</f>
+        <v>7345010.50049849</v>
+      </c>
+      <c r="H72" s="69" t="n">
+        <f aca="false">C72-F72</f>
+        <v>1557989.49950151</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="31" t="n">
         <f aca="false">B72+1</f>
         <v>8</v>
       </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="C73" s="60" t="n">
+        <f aca="false">H72</f>
+        <v>1557989.49950151</v>
+      </c>
+      <c r="D73" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E73" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F73" s="60" t="n">
+        <f aca="false">(C73)*E73/($N$20-B73+1)</f>
+        <v>545296.32482553</v>
+      </c>
+      <c r="G73" s="70" t="n">
+        <f aca="false">G72+F73</f>
+        <v>7890306.82532402</v>
+      </c>
+      <c r="H73" s="69" t="n">
+        <f aca="false">C73-F73</f>
+        <v>1012693.17467598</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="31" t="n">
         <f aca="false">B73+1</f>
         <v>9</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="C74" s="60" t="n">
+        <f aca="false">H73</f>
+        <v>1012693.17467598</v>
+      </c>
+      <c r="D74" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E74" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F74" s="60" t="n">
+        <f aca="false">(C74)*E74/($N$20-B74+1)</f>
+        <v>425331.133363913</v>
+      </c>
+      <c r="G74" s="70" t="n">
+        <f aca="false">G73+F74</f>
+        <v>8315637.95868793</v>
+      </c>
+      <c r="H74" s="69" t="n">
+        <f aca="false">C74-F74</f>
+        <v>587362.041312071</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="31" t="n">
         <f aca="false">B74+1</f>
         <v>10</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="C75" s="60" t="n">
+        <f aca="false">H74</f>
+        <v>587362.041312071</v>
+      </c>
+      <c r="D75" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E75" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F75" s="60" t="n">
+        <f aca="false">(C75)*E75/($N$20-B75+1)</f>
+        <v>308365.071688837</v>
+      </c>
+      <c r="G75" s="70" t="n">
+        <f aca="false">G74+F75</f>
+        <v>8624003.03037677</v>
+      </c>
+      <c r="H75" s="69" t="n">
+        <f aca="false">C75-F75</f>
+        <v>278996.969623234</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="31" t="n">
         <f aca="false">B75+1</f>
         <v>11</v>
       </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="C76" s="60" t="n">
+        <f aca="false">H75</f>
+        <v>278996.969623234</v>
+      </c>
+      <c r="D76" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E76" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F76" s="60" t="n">
+        <f aca="false">(C76)*E76/($N$20-B76+1)</f>
+        <v>195297.878736264</v>
+      </c>
+      <c r="G76" s="70" t="n">
+        <f aca="false">G75+F76</f>
+        <v>8819300.90911303</v>
+      </c>
+      <c r="H76" s="69" t="n">
+        <f aca="false">C76-F76</f>
+        <v>83699.0908869701</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="31" t="n">
         <f aca="false">B76+1</f>
         <v>12</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="C77" s="60" t="n">
+        <f aca="false">H76</f>
+        <v>83699.0908869701</v>
+      </c>
+      <c r="D77" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E77" s="67" t="n">
+        <f aca="false">$N$22</f>
+        <v>2.1</v>
+      </c>
+      <c r="F77" s="60" t="n">
+        <f aca="false">(C77)*E77/($N$20-B77+1)</f>
+        <v>87884.0454313186</v>
+      </c>
+      <c r="G77" s="70" t="n">
+        <f aca="false">G76+F77</f>
+        <v>8907184.95454435</v>
+      </c>
+      <c r="H77" s="69" t="n">
+        <f aca="false">C77-F77</f>
+        <v>-4184.95454434851</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="65" t="n">
+      <c r="B78" s="62" t="n">
         <v>13</v>
       </c>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="C78" s="60" t="n">
+        <f aca="false">H77</f>
+        <v>-4184.95454434851</v>
+      </c>
+      <c r="D78" s="31" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E78" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="60" t="n">
+        <f aca="false">(C78)*E78/($N$20-B78+1)</f>
+        <v>-4184.95454434851</v>
+      </c>
+      <c r="G78" s="70" t="n">
+        <f aca="false">G77+F78</f>
+        <v>8903000</v>
+      </c>
+      <c r="H78" s="69" t="n">
+        <f aca="false">C78-F78</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G79" s="45"/>
       <c r="H79" s="45"/>
     </row>
     <row r="80" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="75" t="s">
+      <c r="C80" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="G80" s="76" t="s">
+      <c r="G80" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="1"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="77"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="65"/>
+      <c r="E81" s="73"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="62"/>
     </row>
     <row r="82" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="59" t="s">
+      <c r="E82" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F82" s="59" t="s">
+      <c r="F82" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="G82" s="78" t="s">
+      <c r="G82" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="59" t="s">
+      <c r="H82" s="58" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3925,50 +4127,119 @@
       <c r="B83" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="63"/>
+      <c r="C83" s="31" t="n">
+        <f aca="false">N19-N21</f>
+        <v>8903000</v>
+      </c>
+      <c r="D83" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E83" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F83" s="60" t="n">
+        <f aca="false">E83</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="G83" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H83" s="60" t="n">
+        <f aca="false">C83-E83</f>
+        <v>8218153.84615385</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="31" t="n">
         <f aca="false">B83+1</f>
         <v>2</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="63"/>
+      <c r="C84" s="60" t="n">
+        <f aca="false">H83</f>
+        <v>8218153.84615385</v>
+      </c>
+      <c r="D84" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E84" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F84" s="60" t="n">
+        <f aca="false">F83+E84</f>
+        <v>1369692.30769231</v>
+      </c>
+      <c r="G84" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H84" s="60" t="n">
+        <f aca="false">C84-E84</f>
+        <v>7533307.69230769</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="31" t="n">
         <f aca="false">B84+1</f>
         <v>3</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="63"/>
+      <c r="C85" s="60" t="n">
+        <f aca="false">H84</f>
+        <v>7533307.69230769</v>
+      </c>
+      <c r="D85" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E85" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F85" s="60" t="n">
+        <f aca="false">F84+E85</f>
+        <v>2054538.46153846</v>
+      </c>
+      <c r="G85" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H85" s="60" t="n">
+        <f aca="false">C85-E85</f>
+        <v>6848461.53846154</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="31" t="n">
         <f aca="false">B85+1</f>
         <v>4</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="63" t="n">
-        <f aca="false">H85-E86</f>
-        <v>0</v>
+      <c r="C86" s="60" t="n">
+        <f aca="false">H85</f>
+        <v>6848461.53846154</v>
+      </c>
+      <c r="D86" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E86" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F86" s="60" t="n">
+        <f aca="false">F85+E86</f>
+        <v>2739384.61538462</v>
+      </c>
+      <c r="G86" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H86" s="60" t="n">
+        <f aca="false">C86-E86</f>
+        <v>6163615.38461538</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,14 +4247,29 @@
         <f aca="false">B86+1</f>
         <v>5</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="63" t="n">
-        <f aca="false">H86-E87</f>
-        <v>0</v>
+      <c r="C87" s="60" t="n">
+        <f aca="false">H86</f>
+        <v>6163615.38461538</v>
+      </c>
+      <c r="D87" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E87" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F87" s="60" t="n">
+        <f aca="false">F86+E87</f>
+        <v>3424230.76923077</v>
+      </c>
+      <c r="G87" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H87" s="60" t="n">
+        <f aca="false">C87-E87</f>
+        <v>5478769.23076923</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,14 +4277,29 @@
         <f aca="false">B87+1</f>
         <v>6</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="63" t="n">
-        <f aca="false">H87-E88</f>
-        <v>0</v>
+      <c r="C88" s="60" t="n">
+        <f aca="false">H87</f>
+        <v>5478769.23076923</v>
+      </c>
+      <c r="D88" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E88" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F88" s="60" t="n">
+        <f aca="false">F87+E88</f>
+        <v>4109076.92307692</v>
+      </c>
+      <c r="G88" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H88" s="60" t="n">
+        <f aca="false">C88-E88</f>
+        <v>4793923.07692308</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,14 +4307,29 @@
         <f aca="false">B88+1</f>
         <v>7</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="63" t="n">
-        <f aca="false">H88-E89</f>
-        <v>0</v>
+      <c r="C89" s="60" t="n">
+        <f aca="false">H88</f>
+        <v>4793923.07692308</v>
+      </c>
+      <c r="D89" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E89" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F89" s="60" t="n">
+        <f aca="false">F88+E89</f>
+        <v>4793923.07692308</v>
+      </c>
+      <c r="G89" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H89" s="60" t="n">
+        <f aca="false">C89-E89</f>
+        <v>4109076.92307692</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,14 +4337,29 @@
         <f aca="false">B89+1</f>
         <v>8</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="63" t="n">
-        <f aca="false">H89-E90</f>
-        <v>0</v>
+      <c r="C90" s="60" t="n">
+        <f aca="false">H89</f>
+        <v>4109076.92307692</v>
+      </c>
+      <c r="D90" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E90" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F90" s="60" t="n">
+        <f aca="false">F89+E90</f>
+        <v>5478769.23076923</v>
+      </c>
+      <c r="G90" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H90" s="60" t="n">
+        <f aca="false">C90-E90</f>
+        <v>3424230.76923077</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,159 +4367,248 @@
         <f aca="false">B90+1</f>
         <v>9</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="31"/>
+      <c r="C91" s="60" t="n">
+        <f aca="false">H90</f>
+        <v>3424230.76923077</v>
+      </c>
+      <c r="D91" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E91" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F91" s="60" t="n">
+        <f aca="false">F90+E91</f>
+        <v>6163615.38461539</v>
+      </c>
+      <c r="G91" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H91" s="60" t="n">
+        <f aca="false">C91-E91</f>
+        <v>2739384.61538461</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="31" t="n">
         <f aca="false">B91+1</f>
         <v>10</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="31"/>
+      <c r="C92" s="60" t="n">
+        <f aca="false">H91</f>
+        <v>2739384.61538461</v>
+      </c>
+      <c r="D92" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E92" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F92" s="60" t="n">
+        <f aca="false">F91+E92</f>
+        <v>6848461.53846154</v>
+      </c>
+      <c r="G92" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H92" s="60" t="n">
+        <f aca="false">C92-E92</f>
+        <v>2054538.46153846</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="31" t="n">
         <f aca="false">B92+1</f>
         <v>11</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="31"/>
+      <c r="C93" s="60" t="n">
+        <f aca="false">H92</f>
+        <v>2054538.46153846</v>
+      </c>
+      <c r="D93" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E93" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F93" s="60" t="n">
+        <f aca="false">F92+E93</f>
+        <v>7533307.69230769</v>
+      </c>
+      <c r="G93" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H93" s="60" t="n">
+        <f aca="false">C93-E93</f>
+        <v>1369692.30769231</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="31" t="n">
         <f aca="false">B93+1</f>
         <v>12</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="31"/>
+      <c r="C94" s="60" t="n">
+        <f aca="false">H93</f>
+        <v>1369692.30769231</v>
+      </c>
+      <c r="D94" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E94" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F94" s="60" t="n">
+        <f aca="false">F93+E94</f>
+        <v>8218153.84615385</v>
+      </c>
+      <c r="G94" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H94" s="60" t="n">
+        <f aca="false">C94-E94</f>
+        <v>684846.153846152</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="31" t="n">
         <f aca="false">B94+1</f>
         <v>13</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="31"/>
+      <c r="C95" s="60" t="n">
+        <f aca="false">H94</f>
+        <v>684846.153846152</v>
+      </c>
+      <c r="D95" s="59" t="n">
+        <f aca="false">$N$21</f>
+        <v>200000</v>
+      </c>
+      <c r="E95" s="60" t="n">
+        <f aca="false">($C$83)*$N$23/$N$24</f>
+        <v>684846.153846154</v>
+      </c>
+      <c r="F95" s="60" t="n">
+        <f aca="false">F94+E95</f>
+        <v>8903000</v>
+      </c>
+      <c r="G95" s="70" t="n">
+        <f aca="false">$N$24</f>
+        <v>3900</v>
+      </c>
+      <c r="H95" s="60" t="n">
+        <f aca="false">C95-E95</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="80"/>
-      <c r="H96" s="65"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="62"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="31"/>
-      <c r="G97" s="63"/>
+      <c r="G97" s="60"/>
     </row>
     <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="81" t="s">
+      <c r="C98" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="81"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="82" t="s">
+      <c r="C101" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="83" t="s">
+      <c r="B105" s="78" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="84" t="s">
+      <c r="B107" s="78" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="85" t="s">
+      <c r="B109" s="79" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="84" t="s">
+      <c r="B110" s="78" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="56"/>
       <c r="E117" s="38" t="s">
         <v>74</v>
       </c>

--- a/econ/p9/p9.xlsx
+++ b/econ/p9/p9.xlsx
@@ -1799,9 +1799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>253800</xdr:rowOff>
+      <xdr:rowOff>253440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1815,7 +1815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1375560" y="8086680"/>
-          <a:ext cx="113760" cy="6840"/>
+          <a:ext cx="113400" cy="6480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2012,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B1:AH117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4028,20 +4028,18 @@
         <v>200000</v>
       </c>
       <c r="E77" s="67" t="n">
-        <f aca="false">$N$22</f>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="60" t="n">
-        <f aca="false">(C77)*E77/($N$20-B77+1)</f>
-        <v>87884.0454313186</v>
+        <v>80000</v>
       </c>
       <c r="G77" s="70" t="n">
         <f aca="false">G76+F77</f>
-        <v>8907184.95454435</v>
+        <v>8899300.90911303</v>
       </c>
       <c r="H77" s="69" t="n">
         <f aca="false">C77-F77</f>
-        <v>-4184.95454434851</v>
+        <v>3699.09088697009</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4052,7 +4050,7 @@
       </c>
       <c r="C78" s="60" t="n">
         <f aca="false">H77</f>
-        <v>-4184.95454434851</v>
+        <v>3699.09088697009</v>
       </c>
       <c r="D78" s="31" t="n">
         <f aca="false">$N$21</f>
@@ -4063,7 +4061,7 @@
       </c>
       <c r="F78" s="60" t="n">
         <f aca="false">(C78)*E78/($N$20-B78+1)</f>
-        <v>-4184.95454434851</v>
+        <v>3699.09088697009</v>
       </c>
       <c r="G78" s="70" t="n">
         <f aca="false">G77+F78</f>
